--- a/records.xlsx
+++ b/records.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t xml:space="preserve">Note: I update these records approximately on a quarterly basis. For any inquiries, please contact me at finance@radian.codes.
 Charges from invoices are placed under the month in which the billing period for the invoice STARTS.</t>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">AWS: Riju</t>
   </si>
   <si>
+    <t xml:space="preserve">This is when my small business free credits ran out on the corporate AWS account, so I started getting billed for AWS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Switched from Google Workspace to Fastmail + Nextcloud for ethical reasons, it also reduces cost</t>
   </si>
   <si>
@@ -84,6 +87,51 @@
   </si>
   <si>
     <t xml:space="preserve">Trial subscription for CryptPad to evaluate as replacement for Google Workspace. I ended up going with Nextcloud instead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost is almost zero for Nextcloud because I keep the server off when not in active use. The main cost is actually the Elastic IP (see above)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I turned this project down in August because it wasn’t receiving active work, so might as well save on the costs, but turns out I forgot about billing for the old EBS snapshots, so it took me until December to delete those.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turning off Tinyku saved an EIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I turned down Fathom after October to save on costs, because analytics are a nice-to-have, not a must</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honestly couldn’t tell you why the EIP bill went down, I really wish Amazon actually broke these down in their billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot to turn off the server one time for a couple days, gonna add a cronjob to turn it off automatically at some point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This charge will finally go away in December now that I’ve remembered to delete the EBS snapshots; the cost for Riju should go down a couple dollars too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Railway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now that Heroku is offline, we’re running Tidier, GNU ELPA Mirror, and Hypercast on Railway. Using Sleeping Beauty keeps the costs pretty controlled but I have a bit more work to do there to optimize even further</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is for publishing Hypercast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome Web Store verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueVine is one of the worst businesses I’ve ever had to deal with, so switching to another bank for business checking was long overdue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF Fire Credit Union account opening fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF Fire Credit Union temporary checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namecheap: radian.codes</t>
   </si>
 </sst>
 </file>
@@ -220,10 +268,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.23"/>
@@ -504,6 +552,9 @@
       <c r="D21" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="n">
@@ -541,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,7 +604,7 @@
         <v>-5</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,10 +616,10 @@
         <v>-5.18</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,221 +642,510 @@
       <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>44805</v>
+      </c>
       <c r="B29" s="5" t="n">
         <f aca="false">B28+C28</f>
         <v>-167.93</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="n">
         <f aca="false">B29+C29</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>-175.1</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="n">
         <f aca="false">B30+C30</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>-175.93</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>-90.45</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="n">
-        <f aca="false">B31+C32</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C32" s="5"/>
+        <f aca="false">B31+C31</f>
+        <v>-266.38</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="n">
-        <f aca="false">B32+C33</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C33" s="5"/>
+        <f aca="false">B32+C32</f>
+        <v>-267.63</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="n">
-        <f aca="false">B33+C34</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C34" s="5"/>
+        <f aca="false">B33+C33</f>
+        <v>-281.63</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="n">
-        <f aca="false">B34+C35</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C35" s="5"/>
+        <f aca="false">B34+C34</f>
+        <v>-286.63</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="n">
-        <f aca="false">B35+C36</f>
-        <v>-167.93</v>
+        <f aca="false">B35+C35</f>
+        <v>-266.63</v>
       </c>
       <c r="C36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>44835</v>
+      </c>
       <c r="B37" s="5" t="n">
-        <f aca="false">B36+C37</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C37" s="5"/>
+        <f aca="false">B36+C36</f>
+        <v>-266.63</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>-4.91</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="n">
-        <f aca="false">B37+C38</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C38" s="5"/>
+        <f aca="false">B37+C37</f>
+        <v>-271.54</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>-0.56</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="n">
-        <f aca="false">B38+C39</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C39" s="5"/>
+        <f aca="false">B38+C38</f>
+        <v>-272.1</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>-92.78</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="n">
-        <f aca="false">B39+C40</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C40" s="5"/>
+        <f aca="false">B39+C39</f>
+        <v>-364.88</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="n">
-        <f aca="false">B40+C41</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C41" s="5"/>
+        <f aca="false">B40+C40</f>
+        <v>-366.06</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="n">
-        <f aca="false">B41+C42</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C42" s="5"/>
+        <f aca="false">B41+C41</f>
+        <v>-380.06</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="n">
-        <f aca="false">B42+C43</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C43" s="5"/>
+        <f aca="false">B42+C42</f>
+        <v>-385.06</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="n">
-        <f aca="false">B43+C44</f>
-        <v>-167.93</v>
+        <f aca="false">B43+C43</f>
+        <v>-365.06</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>44866</v>
+      </c>
       <c r="B45" s="5" t="n">
-        <f aca="false">B44+C45</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C45" s="5"/>
+        <f aca="false">B44+C44</f>
+        <v>-365.06</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="n">
-        <f aca="false">B45+C46</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C46" s="5"/>
+        <f aca="false">B45+C45</f>
+        <v>-367.88</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>-4.89</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="n">
-        <f aca="false">B46+C47</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C47" s="5"/>
+        <f aca="false">B46+C46</f>
+        <v>-372.77</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>-90.04</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="n">
-        <f aca="false">B47+C48</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C48" s="5"/>
+        <f aca="false">B47+C47</f>
+        <v>-462.81</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="n">
-        <f aca="false">B48+C49</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C49" s="5"/>
+        <f aca="false">B48+C48</f>
+        <v>-463.99</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="n">
-        <f aca="false">B49+C50</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C50" s="5"/>
+        <f aca="false">B49+C49</f>
+        <v>-464.51</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="n">
-        <f aca="false">B50+C51</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C51" s="5"/>
+        <f aca="false">B50+C50</f>
+        <v>-469.51</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="n">
-        <f aca="false">B51+C52</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C52" s="5"/>
+        <f aca="false">B51+C51</f>
+        <v>-474.51</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="n">
-        <f aca="false">B52+C53</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C53" s="5"/>
+        <f aca="false">B52+C52</f>
+        <v>-479.51</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="n">
-        <f aca="false">B53+C54</f>
-        <v>-167.93</v>
-      </c>
-      <c r="C54" s="5"/>
+        <f aca="false">B53+C53</f>
+        <v>-481.51</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="n">
-        <f aca="false">B54+C55</f>
-        <v>-167.93</v>
+        <f aca="false">B54+C54</f>
+        <v>-446.77</v>
       </c>
       <c r="C55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>44896</v>
+      </c>
       <c r="B56" s="5" t="n">
-        <f aca="false">B55+C56</f>
-        <v>-167.93</v>
+        <f aca="false">B55+C55</f>
+        <v>-446.77</v>
       </c>
       <c r="C56" s="5"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D56" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="5" t="n">
+        <f aca="false">B56+C56</f>
+        <v>-446.77</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="5" t="n">
+        <f aca="false">B57+C57</f>
+        <v>-446.77</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="5" t="n">
+        <f aca="false">B58+C58</f>
+        <v>-446.77</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="5" t="n">
+        <f aca="false">B59+C59</f>
+        <v>-446.77</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="5" t="n">
+        <f aca="false">B60+C60</f>
+        <v>-446.77</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>-51.16</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="5" t="n">
+        <f aca="false">B61+C61</f>
+        <v>-497.93</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="5" t="n">
+        <f aca="false">B62+C62</f>
+        <v>-497.93</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="5" t="n">
+        <f aca="false">B63+C63</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="5" t="n">
+        <f aca="false">B64+C64</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="5" t="n">
+        <f aca="false">B65+C65</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="5" t="n">
+        <f aca="false">B66+C66</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="5" t="n">
+        <f aca="false">B67+C67</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="5" t="n">
+        <f aca="false">B68+C68</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="5" t="n">
+        <f aca="false">B69+C69</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="5" t="n">
+        <f aca="false">B70+C70</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="5" t="n">
+        <f aca="false">B71+C71</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="5" t="n">
+        <f aca="false">B72+C72</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="5" t="n">
+        <f aca="false">B73+C73</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="5" t="n">
+        <f aca="false">B74+C74</f>
+        <v>-497.93</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="5" t="n">
+        <f aca="false">B75+C75</f>
+        <v>-497.93</v>
+      </c>
+    </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
